--- a/垃圾堆.xlsx
+++ b/垃圾堆.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1FA37E-25F5-4D9C-871A-FDC795DE9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590EB2A-5532-4CFE-A195-141BA77C030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{2FD6AB67-CAA7-4C5B-AF7E-D44D0BCF86C9}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="5" xr2:uid="{2FD6AB67-CAA7-4C5B-AF7E-D44D0BCF86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="494">
   <si>
     <t>名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1582,12 +1584,788 @@
 注意:这是不可使用,不可饶恕,不可逆转的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>背馆人的主人秽土化,背馆人却还是他的奴隶,无论生死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">星硅来到,人类文明结束
+各人员结局:
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间的尽头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入特殊单位:星红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星红来到智核星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星连着星连着星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家来到智核星,游戏开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智核危机爆发,在极冰之地逃来一些难民,亚瑟却不放这些人进城,而是让其守好北面的秽土,自己守南面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙
+因为亚瑟认为只要守住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城,一切都会好起来的,但是北面虽然守住了,南面却失守了,亚瑟低估了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的实力,付出了生命的代价
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虽然最后还是夺回了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城,但已经毫无用处了</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失守</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺亚早就在智核危机前修建大量船只,还额外修建数艘飞艇,不过危机爆发时未及时开走
+诺亚方舟在途径皇家魔法学院时,爆发智核危机,烛上船了,但是同行的蝶没有,被九三救下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺亚方舟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核危机爆发,大量感染新型秽病的人变异,社会宕机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核危机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生死相依</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家魔法学院竞选院长,虽然秽土邪巫更具有实力,但还是被关系网庞大的梅林逼退,且险些丧命,秽土化才保住一条命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>才疏学浅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计划内容:立即对拳源地区进行屠杀,直至杀出"思想隔离带"
+执行人:诺亚
+施行情况:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城都自身难保了还计划,诺亚根本没有考虑白鸽计划</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鸽计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亚瑟要求诺亚带烛及烛明教教徒去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙山以南,与当地的夜阑教进行友好交流,并调查拳源附近的反帝消息
+诺亚到达当晚就带着烛赶去拳源,却被拳源套路,烛不知道计划,想试试拳击比赛,后被修一顿暴捶,投降才保住一条命
+(烛作为贵族投降是非常耻辱的,烛想试试拳击比赛也是觉得自己是贵族,对方应该给点面子,可比赛前修就被要求下死手)
+而诺亚则在观赛室被同性恋ass猥亵长达2小时
+二者狼狈逃离,自此再也没有去过拳源,虽然什么也没有查出来,但又怕以后背责,还是跟亚瑟上报:
+"有,但是不足为惧,拳源势力复杂,不宜贸然行动"
+亚瑟决定启动"白鸽计划"</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两教交汇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛,蝶,璃三人为极冰之地贵族之女,三人关系极好,但天底下没有不散的宴席
+烛在烛明教发展,跟着诺亚混
+蝶去往皇家魔法学院,为自己刷资历,跟着当红的九三导师混
+璃留在极冰之地,跟着哥哥冰晶混</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐妹分离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容:利用空间核心,在各地修建传送点,加强中央对地方的掌控
+执行人:铁娘
+施行情况:在各地都建立起了传送点,传送原件也做好了,但智核危机打断了计划,只有"皇家魔法学院"和"拳源"的传送点真的能用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰眼计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻雀计划刚提出长达50分钟震撼魔法界
+九三又提出了吟唱时长多达100分钟的魔法,但是却没有人质疑或嘲讽,反而给他升为魔法导师,毕竟没有人愿意跟梅林大弟子有矛盾
+以前瞧不起九三的雷鸣导师也没有反驳,因为雷鸣思考发现,这个长达100分钟的魔法,竟然真的有可行性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长的吟唱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容:利用空间核心,寻找地外文明
+执行人:梅林
+实行情况:真的找到了地外文明,但是无法与其沟通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻雀计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计划内容:利用永生核心,在各地地下建立替死室,为用户提供全天候全地区的防刺杀服务
+执行人:彩云绅士
+实行情况:智核危机打断了计划,只有"污垢走廊"建立起了替死室,但没有投入使用,本来应该先在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城构建的,彩云绅士为了一己私利改为污垢走廊,这为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城战役的失败埋下伏笔</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死鸟计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究结论:智核有着远高于我们认知中的智力,它们或许比我们还要聪明
+存活知情人:无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究结论:污垢走廊的蓝鲸幼体,是当地泛滥成灾的小老鼠,所以如果想解决蓝鲸问题,应该着手解决小老鼠
+存活知情人:雷鸣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝鲸研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星涌来到智核星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星连着星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灰被烛明教除名,被皇家魔法学院除名,并没收所有财物,禁止使用魔法
+走投无路只能去智核花谷从事采集智核工作,在此遇见了自己的妻子
+为了活下去,妻子主动变为秽土,公司说过的死亡保险金死灰却要不回来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚蛋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛明教的天才魔法师,死灰导师,尝试用无穷公式精进"日光审判",失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迟龙在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙山偷袭一只刚长大的微型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,将其封印在自己胳膊里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,实力大增</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙的力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤儿院内部人员偷偷倒卖儿童,被铁拳发现一拳一个,但被倒卖的儿童已无处可寻,其中就包括背棺人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>败露</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秽土邪巫受巫毒教启发,发现了"无穷公式",利用公式可以在不影响效果的情况下,大幅减少魔法的吟唱时间,最多减少95%的吟唱时间!
+但公式晦涩难懂,极少有人能正确利用公式(错误利用公式也会减少吟唱时间,但最简时间不对)
+可以正确利用无穷公式缩减时间的魔法师被称为无穷魔法师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚瑟收复所有失地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国崛起</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管夜阑教曾派出无数暗刺,但仍让亚瑟无伤活到成年
+极冰之地的资本家政治家不再等待,大军压境,但被亚瑟拿下,后开启亚瑟的收复之路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚瑟成长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本家们联合起来,把灵魂出卖给大魔王,换来魔族的身份与能力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔交易</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>年幼时(13岁)的亚瑟用训练木剑单手斩杀叛军大将军才保住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城
+帝国最终被瓜分为5份,其中一份分给狼族,一份是皇室仅剩的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙城</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧与余烬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无能的国王急需一件大功证明自己,一顿挑,找到软柿子:大衮密令教,但是被先发制人一发克苏鲁的呼唤直接秒了
+国王暴死,资本家联合烛明教,夜阑教,狼族等一众权贵将帝国瓜分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软柿子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王平平,难堪重任
+贪腐横行,黑幕重重
+大财阀觊觎帝国裂
+邪教滋生,谣言四起
+烛台倾倒,暗潮汹涌
+统治基础已难倚靠
+科技兴起,神话不攻
+愚民自娱,人民觉醒
+大厦将倾何去何从?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厦将倾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星祖来到地球,并参与十月革命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通古斯大爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成后果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100条也不够)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自转角速度为地球的50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速变小,气流变稳定,气温差异变大,气候变极端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在气候极端的低速自转星球上，生物可能会有更强的耐寒耐热能力或者更多样的代谢方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤道附近的气候可能会更加干燥，而极地地区的气候可能会更加寒冷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天将会有大约48小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活在这个星球上的生物需要更好的夜视能力来适应更长时间的黑暗,或者更好的防护能力来防止更长时间的紫外线照射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致更极端的温度变化。白天的加热和夜晚的冷却都会更加剧烈,可能会导致更极端的天气条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成频繁的地震</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地磁场会减弱,太阳风会因为地磁场减弱而对地球造成更大的影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于风力较弱,大气层会更加分层和不均匀,从而使得含氧量在不同地区和高度的差异较大
+另一方面,由于昼夜交替更缓慢,生物的光合作用和呼吸作用会更加失衡,从而使得含氧量在不同时间的波动较大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物会进化出一些适应弱潮汐环境的特征</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫无规律</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移技能</t>
+  </si>
+  <si>
+    <t>施加状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强己方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤技能</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境与格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制位移</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀</t>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,6 +2416,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1662,7 +2462,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +2482,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4262,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E88E46-D199-40CB-9F3F-982C6B40E48B}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
@@ -5206,12 +6024,775 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19806E6D-13B9-40D2-B9A1-00A949AB876E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="158" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3104</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="128.4">
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.55">
+      <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.55">
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.55">
+      <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.8">
+      <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="42.8">
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="28.55">
+      <c r="B22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="28.55">
+      <c r="B23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="42.8">
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="42.8">
+      <c r="B25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="42.8">
+      <c r="B26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="42.8">
+      <c r="B27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="57.1">
+      <c r="B28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="99.85">
+      <c r="B29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="42.8">
+      <c r="B30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45658</v>
+      </c>
+      <c r="D33" s="8">
+        <v>118712</v>
+      </c>
+      <c r="E33" t="s">
+        <v>397</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.55">
+      <c r="B34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="8">
+        <v>45658</v>
+      </c>
+      <c r="D34" s="8">
+        <v>118712</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.8">
+      <c r="B35" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45658</v>
+      </c>
+      <c r="D35" s="8">
+        <v>118712</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45754</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="8">
+        <v>119251</v>
+      </c>
+      <c r="E42" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="42.8">
+      <c r="B53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="8">
+        <v>46386</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7AC3AA-9245-4630-9FF5-EA7E54081844}">
+  <dimension ref="E2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="105.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" ht="28.55">
+      <c r="E11" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="https://baike.baidu.com/item/%E5%9C%B0%E7%90%83%E8%87%AA%E8%BD%AC/799188" xr:uid="{24FC73EB-4417-4E65-B5A1-1ED5E02F02FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B0B72-90DB-40E2-9061-796836CA131D}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.65">
+      <c r="B2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.65">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.65">
+      <c r="B4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.65">
+      <c r="B5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.65">
+      <c r="B6" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.65">
+      <c r="B7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.65">
+      <c r="B8" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.65">
+      <c r="B9" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.65">
+      <c r="B10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.65">
+      <c r="B11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.65">
+      <c r="B12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.65">
+      <c r="B13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.65">
+      <c r="B14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
